--- a/biology/Médecine/Retour_veineux/Retour_veineux.xlsx
+++ b/biology/Médecine/Retour_veineux/Retour_veineux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le retour veineux est le phénomène de la remontée du sang (appauvri en oxygène) du bas du corps vers la partie supérieure du corps pour y être rechargé. Ce retour est rendu possible par trois phénomènes classés par ordre d'importance :
 la compression des veines par les muscles squelettiques qui compressent les parois des veines lorsqu'ils sont tendus. A cela s'associe la présence de valves unidirectionnelles anti-reflux, interdisant le reflux du sang vers l'organe dont il provient ;
@@ -516,7 +528,9 @@
           <t>Facteurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pour que le retour veineux augmente, 4 facteurs entrent en compte:
 L'activité des nerfs sympathiques des veines
@@ -550,7 +564,9 @@
           <t>Pathologies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les varices sont une pathologie courante liée à un dysfonctionnement du retour veineux. Elles sont caractérisées par un défaut d'étanchéité d'une ou plusieurs valves anti-reflux entraînant une stagnation du sang visible à travers la peau.
 </t>
